--- a/src/ExcelsiorAspose.Tests/ValueRenderedTests.TestNullables.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/ValueRenderedTests.TestNullables.verified.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>String</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>With nulls</t>
+  </si>
+  <si>
+    <t>Rendered Nullable AnEnum</t>
+  </si>
+  <si>
+    <t>Rendered Nullable Nested</t>
   </si>
 </sst>
 </file>
@@ -481,8 +487,8 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="24.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="23.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14" customHeight="1">
@@ -511,8 +517,12 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C3"/>
